--- a/excercises/excercises/50.Separator.xlsx
+++ b/excercises/excercises/50.Separator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8970749-C262-4BAD-A200-A4A991353021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DBA4D-5939-441E-A8D0-23B3592C5A5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25935" yWindow="1665" windowWidth="22530" windowHeight="18345" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2700" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сепарация на приеме" sheetId="110" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <definedName name="Tres_" localSheetId="0">'Сепарация на приеме'!$C$13</definedName>
     <definedName name="Udl_" localSheetId="0">'Сепарация на приеме'!#REF!</definedName>
     <definedName name="wc_" localSheetId="0">'Сепарация на приеме'!$C$16</definedName>
-    <definedName name="версия_">[2]Unifloc!$A$1</definedName>
+    <definedName name="версия_">[1]Unifloc!$A$1</definedName>
     <definedName name="Геоградиент">Фонтан!$I$45:$J$61</definedName>
     <definedName name="ГФ__м3_м3">Фонтан!$B$27</definedName>
     <definedName name="Инклинометрия">Фонтан!$A$45:$B$200</definedName>
@@ -108,7 +108,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -116,44 +115,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ринат Хабибуллин</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9E74ABD6-60DC-46B5-9B68-F27442030C13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Ринат Хабибуллин:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-23.05.2018  Исправлен расчет диаграммы рассогласования данных PVT 
-02.06.2018  Добавлен график с долей газа, в диаграмме рассогласованности добавлена учет расхождений по плотности газа, добавлены графики без калибровок, исправлен расчет с учетом сепарации без калибровок
-22.05.2018  Добавлен график - диаграмма рассогласованности PVT данных</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rnt</author>
@@ -190,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="327">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1057,13 +1018,7 @@
     <t>ЭЦН5А-700Э (из ЭЦН5А-500Э)</t>
   </si>
   <si>
-    <t>кг/м3</t>
-  </si>
-  <si>
     <t>м3/м3</t>
-  </si>
-  <si>
-    <t>м3/т</t>
   </si>
   <si>
     <t>атм</t>
@@ -1342,6 +1297,98 @@
   <si>
     <t>Доля газа в газосепараторе</t>
   </si>
+  <si>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/т</t>
+    </r>
+  </si>
+  <si>
+    <t>атмa</t>
+  </si>
+  <si>
+    <t>МПа</t>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
 </sst>
 </file>
 
@@ -1454,12 +1501,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1490,15 +1531,24 @@
       <charset val="204"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,8 +1603,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1988,6 +2056,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1998,7 +2090,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2142,18 +2234,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2162,15 +2244,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2183,13 +2256,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,7 +2265,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,54 +2274,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,16 +2286,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2313,12 +2331,87 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2634,82 +2727,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98050848627724319</c:v>
+                  <c:v>0.98022867678221171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94562770074031177</c:v>
+                  <c:v>0.94445341886832002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90166444575419158</c:v>
+                  <c:v>0.89945030384495972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83218918772194195</c:v>
+                  <c:v>0.82850058789562298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7730258878248899</c:v>
+                  <c:v>0.76824447548690444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73687056573522114</c:v>
+                  <c:v>0.73150010072162974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69294569763769454</c:v>
+                  <c:v>0.68694754284160453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65352701954235992</c:v>
+                  <c:v>0.64705604957244611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61797141613664164</c:v>
+                  <c:v>0.61115609891194356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58578835286753428</c:v>
+                  <c:v>0.57873677500003529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5565875088765555</c:v>
+                  <c:v>0.5493913698917916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53004851154082666</c:v>
+                  <c:v>0.5227859399557313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50590209398215547</c:v>
+                  <c:v>0.49863972699355941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48391768455097006</c:v>
+                  <c:v>0.47671226059030869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46389486266915791</c:v>
+                  <c:v>0.45679447697820796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44565726212318157</c:v>
+                  <c:v>0.43870238061487443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42904809008159361</c:v>
+                  <c:v>0.42227238452458304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41392675058839767</c:v>
+                  <c:v>0.40735779831439678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40016624559041913</c:v>
+                  <c:v>0.39382612421554519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3876511372933189</c:v>
+                  <c:v>0.38155693652737277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37627592469573212</c:v>
+                  <c:v>0.3704401915749731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36594373161527116</c:v>
+                  <c:v>0.36037486148306286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35656523296052889</c:v>
+                  <c:v>0.35126781565414378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3480577659801245</c:v>
+                  <c:v>0.34303289459394648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34034458707322512</c:v>
+                  <c:v>0.33559013512076596</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.33335424454110862</c:v>
+                  <c:v>0.32886511617295611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,82 +2946,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.97012843875079935</c:v>
+                  <c:v>0.96957451416371621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89720288771742496</c:v>
+                  <c:v>0.89488796101875079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8247673365653887</c:v>
+                  <c:v>0.82093325490364244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72608798033410282</c:v>
+                  <c:v>0.72055418316617359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64056470991797554</c:v>
+                  <c:v>0.63395868815258805</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57169623027373007</c:v>
+                  <c:v>0.56456608525384833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51557052251427815</c:v>
+                  <c:v>0.50830066724338674</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46959112124372315</c:v>
+                  <c:v>0.46245531701050702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43186719128099127</c:v>
+                  <c:v>0.42505769713579067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40094013453386212</c:v>
+                  <c:v>0.39458603294225281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37564018273445265</c:v>
+                  <c:v>0.36981995378129673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35500288224088639</c:v>
+                  <c:v>0.34975357702597343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33821664212385061</c:v>
+                  <c:v>0.33354088244813163</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32458784014017716</c:v>
+                  <c:v>0.3204593432514109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31351652758245363</c:v>
+                  <c:v>0.30988458144804687</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30447887487946179</c:v>
+                  <c:v>0.30127203730995422</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29701409066566153</c:v>
+                  <c:v>0.29414329580923759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2907144169663276</c:v>
+                  <c:v>0.28807561708624796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28521730441816473</c:v>
+                  <c:v>0.28269373902545247</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28019917323254528</c:v>
+                  <c:v>0.26996639947580725</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27537035422306744</c:v>
+                  <c:v>0.2640770537344217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27047092602630585</c:v>
+                  <c:v>0.25749324543840135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2652672457145826</c:v>
+                  <c:v>0.24995859185444491</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25954902567525462</c:v>
+                  <c:v>0.24124489522217729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23788200406584448</c:v>
+                  <c:v>0.23114920779053172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22758141695104506</c:v>
+                  <c:v>0.21949150310118704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,82 +3576,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98050848627724319</c:v>
+                  <c:v>0.98022867678221171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94562770074031177</c:v>
+                  <c:v>0.94445341886832002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90166444575419158</c:v>
+                  <c:v>0.89945030384495972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83218918772194195</c:v>
+                  <c:v>0.82850058789562298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7730258878248899</c:v>
+                  <c:v>0.76824447548690444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73687056573522114</c:v>
+                  <c:v>0.73150010072162974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69294569763769454</c:v>
+                  <c:v>0.68694754284160453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65352701954235992</c:v>
+                  <c:v>0.64705604957244611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61797141613664164</c:v>
+                  <c:v>0.61115609891194356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58578835286753428</c:v>
+                  <c:v>0.57873677500003529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5565875088765555</c:v>
+                  <c:v>0.5493913698917916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53004851154082666</c:v>
+                  <c:v>0.5227859399557313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50590209398215547</c:v>
+                  <c:v>0.49863972699355941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48391768455097006</c:v>
+                  <c:v>0.47671226059030869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46389486266915791</c:v>
+                  <c:v>0.45679447697820796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44565726212318157</c:v>
+                  <c:v>0.43870238061487443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.42904809008159361</c:v>
+                  <c:v>0.42227238452458304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.41392675058839767</c:v>
+                  <c:v>0.40735779831439678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40016624559041913</c:v>
+                  <c:v>0.39382612421554519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3876511372933189</c:v>
+                  <c:v>0.38155693652737277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37627592469573212</c:v>
+                  <c:v>0.3704401915749731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.36594373161527116</c:v>
+                  <c:v>0.36037486148306286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35656523296052889</c:v>
+                  <c:v>0.35126781565414378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3480577659801245</c:v>
+                  <c:v>0.34303289459394648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34034458707322512</c:v>
+                  <c:v>0.33559013512076596</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.33335424454110862</c:v>
+                  <c:v>0.32886511617295611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,82 +3795,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98474129734361582</c:v>
+                  <c:v>0.98022867678221171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97122919442884303</c:v>
+                  <c:v>0.94445341886832002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9557195697844828</c:v>
+                  <c:v>0.89945030384495972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94248328158348538</c:v>
+                  <c:v>0.82850058789562298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94074977288809591</c:v>
+                  <c:v>0.76824447548690444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94476509855798196</c:v>
+                  <c:v>0.73150010072162974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94368740356514325</c:v>
+                  <c:v>0.68694754284160453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93948810800018012</c:v>
+                  <c:v>0.64705604957244611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93224579213463588</c:v>
+                  <c:v>0.61115609891194356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92208166096918065</c:v>
+                  <c:v>0.57873677500003529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90936690190000302</c:v>
+                  <c:v>0.5493913698917916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89455193707955571</c:v>
+                  <c:v>0.5227859399557313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87807535577247919</c:v>
+                  <c:v>0.49863972699355941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86031905564107314</c:v>
+                  <c:v>0.47671226059030869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.84158961575142477</c:v>
+                  <c:v>0.45679447697820796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82211409154048143</c:v>
+                  <c:v>0.43870238061487443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80204327424617472</c:v>
+                  <c:v>0.42227238452458304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7814583185100592</c:v>
+                  <c:v>0.40735779831439678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.76037833242853603</c:v>
+                  <c:v>0.39382612421554519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7387675345473127</c:v>
+                  <c:v>0.38155693652737277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.71654119790374327</c:v>
+                  <c:v>0.3704401915749731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.69356998581928941</c:v>
+                  <c:v>0.36037486148306286</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66325921169589153</c:v>
+                  <c:v>0.35126781565414378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.61921071235417358</c:v>
+                  <c:v>0.34303289459394648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55209123715582586</c:v>
+                  <c:v>0.33559013512076596</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.48277638705526993</c:v>
+                  <c:v>0.32886511617295611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,16 +7226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>629291</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>853408</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>407655</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261978</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7157,8 +7250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5716762" y="907676"/>
-          <a:ext cx="5123569" cy="3184633"/>
+          <a:off x="6131379" y="818029"/>
+          <a:ext cx="5683864" cy="2846295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7948,28 +8041,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="MF_gas_fraction_d"/>
-      <definedName name="MF_ksep_gasseparator_d"/>
-      <definedName name="MF_ksep_natural_d"/>
-      <definedName name="MF_ksep_total_d"/>
-      <definedName name="PVT_encode_string"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Unifloc"/>
       <sheetName val="PVT"/>
       <sheetName val="Construction"/>
@@ -7994,6 +8065,29 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="getUFVersion"/>
+      <definedName name="MF_gas_fraction_d"/>
+      <definedName name="MF_ksep_gasseparator_d"/>
+      <definedName name="MF_ksep_natural_d"/>
+      <definedName name="MF_ksep_total_d"/>
+      <definedName name="PVT_encode_string"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8295,1008 +8389,1063 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист9">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
-        <f>"Унифлок "&amp;версия_&amp;" приложение версия 1.0"</f>
-        <v>Унифлок вер 7.7 приложение версия 1.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[2]!getUFVersion()</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="58" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="67" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>0.75</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="52">
+      <c r="D7" s="61"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100">
         <f>gamma_oil_*1000</f>
         <v>750</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="G7" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="50">
         <v>1</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="51">
+      <c r="D8" s="61"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100">
+        <f>gamma_wat_*1000</f>
+        <v>900</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="50">
         <v>0.9</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="52">
+      <c r="D9" s="61"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100">
         <f>gamma_gas_*1.22</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="G9" s="59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="50">
+        <v>80</v>
+      </c>
+      <c r="D10" s="61" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="51">
-        <v>80</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="54">
+      <c r="E10" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="101">
         <f>Rsb_/gamma_oil_</f>
         <v>106.66666666666667</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="51">
+      <c r="G10" s="59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="50">
         <v>80</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="54">
+      <c r="D11" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="101">
         <f>Rsb_/gamma_oil_</f>
         <v>106.66666666666667</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="G11" s="59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="50">
+        <v>120</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="101">
+        <f>Pb_*1.01325</f>
+        <v>121.59</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="50">
+        <v>120</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68" t="s">
+      <c r="E13" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="101">
+        <f>Tres_*9/5+32</f>
+        <v>248</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="51">
-        <v>120</v>
-      </c>
-      <c r="D12" s="70" t="s">
+      <c r="C14" s="50">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="50">
+        <v>1</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="50">
+        <v>1</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="51">
-        <v>120</v>
-      </c>
-      <c r="D13" s="70" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="50">
+        <v>125</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1.2</v>
-      </c>
-      <c r="D14" s="70" t="s">
+    <row r="20" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="50">
+        <v>100</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="50">
+        <v>30</v>
+      </c>
+      <c r="D21" s="61" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="51">
-        <v>1</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="51">
-        <v>125</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="70" t="s">
+    <row r="22" spans="1:20" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="51">
-        <v>100</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="51">
-        <v>30</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>80</v>
       </c>
-      <c r="D22" s="70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.900;gamma_oil:0.750;gamma_wat:0.900;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:120.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="103" t="str">
+        <f>[2]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,900;gamma_oil:0,750;gamma_wat:0,900;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:120,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+      </c>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+    </row>
+    <row r="26" spans="1:20" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="57">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="53">
         <v>0.9</v>
       </c>
-      <c r="H30" s="109">
+      <c r="H30" s="104">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="50" t="s">
+    <row r="31" spans="1:20" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="E31" s="59" t="str">
+      <c r="D31" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="107" t="str">
         <f>"Естественная сепарация "&amp;Dintake_&amp;" мм"</f>
         <v>Естественная сепарация 100 мм</v>
       </c>
-      <c r="F31" s="59" t="str">
+      <c r="F31" s="107" t="str">
         <f>"Естественная сепарация "&amp;Dcas_*cf_dcas_&amp;" мм"</f>
         <v>Естественная сепарация 112.5 мм</v>
       </c>
-      <c r="G31" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="51">
+      <c r="G31" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="107" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="50">
         <v>1</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="50">
         <v>80</v>
       </c>
-      <c r="E32" s="58">
-        <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.98050848627724319</v>
-      </c>
-      <c r="F32" s="58">
-        <f>[1]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.97012843875079935</v>
-      </c>
-      <c r="G32" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F32)</f>
-        <v>2.1254173590205309E-2</v>
-      </c>
-      <c r="H32" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G32,C32)</f>
-        <v>0.21716174159581556</v>
-      </c>
-      <c r="I32" s="58">
-        <f>[1]!MF_ksep_total_d(E32,H32)</f>
-        <v>0.98474129734361582</v>
+      <c r="E32" s="105">
+        <f>[2]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.98022867678221171</v>
+      </c>
+      <c r="F32" s="105">
+        <f>[2]!MF_ksep_natural_d(C32,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.96957451416371621</v>
+      </c>
+      <c r="G32" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G32,C32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="105">
+        <f>[2]!MF_ksep_total_d(E32,H32)</f>
+        <v>0.98022867678221171</v>
       </c>
     </row>
     <row r="33" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <v>5</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="50">
         <v>80</v>
       </c>
-      <c r="E33" s="58">
-        <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.94562770074031177</v>
-      </c>
-      <c r="F33" s="58">
-        <f>[1]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.89720288771742496</v>
-      </c>
-      <c r="G33" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F33)</f>
-        <v>7.314206481538163E-2</v>
-      </c>
-      <c r="H33" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G33,C33)</f>
-        <v>0.47085545465450451</v>
-      </c>
-      <c r="I33" s="58">
-        <f>[1]!MF_ksep_total_d(E33,H33)</f>
-        <v>0.97122919442884303</v>
+      <c r="E33" s="105">
+        <f>[2]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.94445341886832002</v>
+      </c>
+      <c r="F33" s="105">
+        <f>[2]!MF_ksep_natural_d(C33,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.89488796101875079</v>
+      </c>
+      <c r="G33" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G33,C33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="105">
+        <f>[2]!MF_ksep_total_d(E33,H33)</f>
+        <v>0.94445341886832002</v>
       </c>
     </row>
     <row r="34" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <v>10</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="50">
         <v>80</v>
       </c>
-      <c r="E34" s="58">
-        <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.90166444575419158</v>
-      </c>
-      <c r="F34" s="58">
-        <f>[1]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.8247673365653887</v>
-      </c>
-      <c r="G34" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F34)</f>
-        <v>0.12468131197571454</v>
-      </c>
-      <c r="H34" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G34,C34)</f>
-        <v>0.54970071043856783</v>
-      </c>
-      <c r="I34" s="58">
-        <f>[1]!MF_ksep_total_d(E34,H34)</f>
-        <v>0.9557195697844828</v>
+      <c r="E34" s="105">
+        <f>[2]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.89945030384495972</v>
+      </c>
+      <c r="F34" s="105">
+        <f>[2]!MF_ksep_natural_d(C34,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.82093325490364244</v>
+      </c>
+      <c r="G34" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G34,C34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="105">
+        <f>[2]!MF_ksep_total_d(E34,H34)</f>
+        <v>0.89945030384495972</v>
       </c>
     </row>
     <row r="35" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <v>20</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="50">
         <v>80</v>
       </c>
-      <c r="E35" s="58">
-        <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.83218918772194195</v>
-      </c>
-      <c r="F35" s="58">
-        <f>[1]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.72608798033410282</v>
-      </c>
-      <c r="G35" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F35)</f>
-        <v>0.19489351647391706</v>
-      </c>
-      <c r="H35" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G35,C35)</f>
-        <v>0.65725260705364452</v>
-      </c>
-      <c r="I35" s="58">
-        <f>[1]!MF_ksep_total_d(E35,H35)</f>
-        <v>0.94248328158348538</v>
+      <c r="E35" s="105">
+        <f>[2]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.82850058789562298</v>
+      </c>
+      <c r="F35" s="105">
+        <f>[2]!MF_ksep_natural_d(C35,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.72055418316617359</v>
+      </c>
+      <c r="G35" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G35,C35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="105">
+        <f>[2]!MF_ksep_total_d(E35,H35)</f>
+        <v>0.82850058789562298</v>
       </c>
     </row>
     <row r="36" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <v>30</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="50">
         <v>80</v>
       </c>
-      <c r="E36" s="58">
-        <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.7730258878248899</v>
-      </c>
-      <c r="F36" s="58">
-        <f>[1]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.64056470991797554</v>
-      </c>
-      <c r="G36" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F36)</f>
-        <v>0.25574492026437279</v>
-      </c>
-      <c r="H36" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G36,C36)</f>
-        <v>0.7389560133351567</v>
-      </c>
-      <c r="I36" s="58">
-        <f>[1]!MF_ksep_total_d(E36,H36)</f>
-        <v>0.94074977288809591</v>
+      <c r="E36" s="105">
+        <f>[2]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.76824447548690444</v>
+      </c>
+      <c r="F36" s="105">
+        <f>[2]!MF_ksep_natural_d(C36,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.63395868815258805</v>
+      </c>
+      <c r="G36" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F36)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G36,C36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="105">
+        <f>[2]!MF_ksep_total_d(E36,H36)</f>
+        <v>0.76824447548690444</v>
       </c>
     </row>
     <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="51">
+      <c r="C37" s="50">
         <v>40</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="50">
         <v>80</v>
       </c>
-      <c r="E37" s="58">
-        <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.73687056573522114</v>
-      </c>
-      <c r="F37" s="58">
-        <f>[1]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.57169623027373007</v>
-      </c>
-      <c r="G37" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F37)</f>
-        <v>0.30474612944260027</v>
-      </c>
-      <c r="H37" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G37,C37)</f>
-        <v>0.79008467222090806</v>
-      </c>
-      <c r="I37" s="58">
-        <f>[1]!MF_ksep_total_d(E37,H37)</f>
-        <v>0.94476509855798196</v>
+      <c r="E37" s="105">
+        <f>[2]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.73150010072162974</v>
+      </c>
+      <c r="F37" s="105">
+        <f>[2]!MF_ksep_natural_d(C37,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.56456608525384833</v>
+      </c>
+      <c r="G37" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G37,C37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="105">
+        <f>[2]!MF_ksep_total_d(E37,H37)</f>
+        <v>0.73150010072162974</v>
       </c>
     </row>
     <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="51">
-        <v>50</v>
-      </c>
-      <c r="D38" s="51">
+      <c r="C38" s="50">
+        <v>50</v>
+      </c>
+      <c r="D38" s="50">
         <v>80</v>
       </c>
-      <c r="E38" s="58">
-        <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.69294569763769454</v>
-      </c>
-      <c r="F38" s="58">
-        <f>[1]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.51557052251427815</v>
-      </c>
-      <c r="G38" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F38)</f>
-        <v>0.34468061849192794</v>
-      </c>
-      <c r="H38" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G38,C38)</f>
-        <v>0.81660378636085251</v>
-      </c>
-      <c r="I38" s="58">
-        <f>[1]!MF_ksep_total_d(E38,H38)</f>
-        <v>0.94368740356514325</v>
+      <c r="E38" s="105">
+        <f>[2]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.68694754284160453</v>
+      </c>
+      <c r="F38" s="105">
+        <f>[2]!MF_ksep_natural_d(C38,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.50830066724338674</v>
+      </c>
+      <c r="G38" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G38,C38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="105">
+        <f>[2]!MF_ksep_total_d(E38,H38)</f>
+        <v>0.68694754284160453</v>
       </c>
     </row>
     <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <v>60</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="50">
         <v>80</v>
       </c>
-      <c r="E39" s="58">
-        <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.65352701954235992</v>
-      </c>
-      <c r="F39" s="58">
-        <f>[1]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.46959112124372315</v>
-      </c>
-      <c r="G39" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F39)</f>
-        <v>0.37739582102270403</v>
-      </c>
-      <c r="H39" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G39,C39)</f>
-        <v>0.82534888602311052</v>
-      </c>
-      <c r="I39" s="58">
-        <f>[1]!MF_ksep_total_d(E39,H39)</f>
-        <v>0.93948810800018012</v>
+      <c r="E39" s="105">
+        <f>[2]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.64705604957244611</v>
+      </c>
+      <c r="F39" s="105">
+        <f>[2]!MF_ksep_natural_d(C39,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.46245531701050702</v>
+      </c>
+      <c r="G39" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G39,C39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="105">
+        <f>[2]!MF_ksep_total_d(E39,H39)</f>
+        <v>0.64705604957244611</v>
       </c>
     </row>
     <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <v>70</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="50">
         <v>80</v>
       </c>
-      <c r="E40" s="58">
-        <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.61797141613664164</v>
-      </c>
-      <c r="F40" s="58">
-        <f>[1]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.43186719128099127</v>
-      </c>
-      <c r="G40" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F40)</f>
-        <v>0.40423710157191223</v>
-      </c>
-      <c r="H40" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G40,C40)</f>
-        <v>0.82264623452993246</v>
-      </c>
-      <c r="I40" s="58">
-        <f>[1]!MF_ksep_total_d(E40,H40)</f>
-        <v>0.93224579213463588</v>
+      <c r="E40" s="105">
+        <f>[2]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.61115609891194356</v>
+      </c>
+      <c r="F40" s="105">
+        <f>[2]!MF_ksep_natural_d(C40,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.42505769713579067</v>
+      </c>
+      <c r="G40" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G40,C40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="105">
+        <f>[2]!MF_ksep_total_d(E40,H40)</f>
+        <v>0.61115609891194356</v>
       </c>
     </row>
     <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="51">
+      <c r="C41" s="50">
         <v>80</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="50">
         <v>80</v>
       </c>
-      <c r="E41" s="58">
-        <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.58578835286753428</v>
-      </c>
-      <c r="F41" s="58">
-        <f>[1]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.40094013453386212</v>
-      </c>
-      <c r="G41" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F41)</f>
-        <v>0.42624227991709174</v>
-      </c>
-      <c r="H41" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G41,C41)</f>
-        <v>0.81188761936020371</v>
-      </c>
-      <c r="I41" s="58">
-        <f>[1]!MF_ksep_total_d(E41,H41)</f>
-        <v>0.92208166096918065</v>
+      <c r="E41" s="105">
+        <f>[2]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.57873677500003529</v>
+      </c>
+      <c r="F41" s="105">
+        <f>[2]!MF_ksep_natural_d(C41,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.39458603294225281</v>
+      </c>
+      <c r="G41" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G41,C41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="105">
+        <f>[2]!MF_ksep_total_d(E41,H41)</f>
+        <v>0.57873677500003529</v>
       </c>
     </row>
     <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <v>90</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="50">
         <v>80</v>
       </c>
-      <c r="E42" s="58">
-        <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.5565875088765555</v>
-      </c>
-      <c r="F42" s="58">
-        <f>[1]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.37564018273445265</v>
-      </c>
-      <c r="G42" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F42)</f>
-        <v>0.44424366802273907</v>
-      </c>
-      <c r="H42" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G42,C42)</f>
-        <v>0.7956009361162425</v>
-      </c>
-      <c r="I42" s="58">
-        <f>[1]!MF_ksep_total_d(E42,H42)</f>
-        <v>0.90936690190000302</v>
+      <c r="E42" s="105">
+        <f>[2]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.5493913698917916</v>
+      </c>
+      <c r="F42" s="105">
+        <f>[2]!MF_ksep_natural_d(C42,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.36981995378129673</v>
+      </c>
+      <c r="G42" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G42,C42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="105">
+        <f>[2]!MF_ksep_total_d(E42,H42)</f>
+        <v>0.5493913698917916</v>
       </c>
     </row>
     <row r="43" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <v>100</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="50">
         <v>80</v>
       </c>
-      <c r="E43" s="58">
-        <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.53004851154082666</v>
-      </c>
-      <c r="F43" s="58">
-        <f>[1]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.35500288224088639</v>
-      </c>
-      <c r="G43" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F43)</f>
-        <v>0.45892749266331501</v>
-      </c>
-      <c r="H43" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G43,C43)</f>
-        <v>0.7756192596257625</v>
-      </c>
-      <c r="I43" s="58">
-        <f>[1]!MF_ksep_total_d(E43,H43)</f>
-        <v>0.89455193707955571</v>
+      <c r="E43" s="105">
+        <f>[2]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.5227859399557313</v>
+      </c>
+      <c r="F43" s="105">
+        <f>[2]!MF_ksep_natural_d(C43,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.34975357702597343</v>
+      </c>
+      <c r="G43" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G43,C43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="105">
+        <f>[2]!MF_ksep_total_d(E43,H43)</f>
+        <v>0.5227859399557313</v>
       </c>
     </row>
     <row r="44" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <v>110</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <v>80</v>
       </c>
-      <c r="E44" s="58">
-        <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.50590209398215547</v>
-      </c>
-      <c r="F44" s="58">
-        <f>[1]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.33821664212385061</v>
-      </c>
-      <c r="G44" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F44)</f>
-        <v>0.47087121593904085</v>
-      </c>
-      <c r="H44" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G44,C44)</f>
-        <v>0.75323788515890311</v>
-      </c>
-      <c r="I44" s="58">
-        <f>[1]!MF_ksep_total_d(E44,H44)</f>
-        <v>0.87807535577247919</v>
+      <c r="E44" s="105">
+        <f>[2]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.49863972699355941</v>
+      </c>
+      <c r="F44" s="105">
+        <f>[2]!MF_ksep_natural_d(C44,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.33354088244813163</v>
+      </c>
+      <c r="G44" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G44,C44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="105">
+        <f>[2]!MF_ksep_total_d(E44,H44)</f>
+        <v>0.49863972699355941</v>
       </c>
     </row>
     <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <v>120</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="50">
         <v>80</v>
       </c>
-      <c r="E45" s="58">
-        <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.48391768455097006</v>
-      </c>
-      <c r="F45" s="58">
-        <f>[1]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.32458784014017716</v>
-      </c>
-      <c r="G45" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F45)</f>
-        <v>0.48056836302723599</v>
-      </c>
-      <c r="H45" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G45,C45)</f>
-        <v>0.72934367216711526</v>
-      </c>
-      <c r="I45" s="58">
-        <f>[1]!MF_ksep_total_d(E45,H45)</f>
-        <v>0.86031905564107314</v>
+      <c r="E45" s="105">
+        <f>[2]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.47671226059030869</v>
+      </c>
+      <c r="F45" s="105">
+        <f>[2]!MF_ksep_natural_d(C45,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.3204593432514109</v>
+      </c>
+      <c r="G45" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F45)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G45,C45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="105">
+        <f>[2]!MF_ksep_total_d(E45,H45)</f>
+        <v>0.47671226059030869</v>
       </c>
     </row>
     <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <v>130</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="50">
         <v>80</v>
       </c>
-      <c r="E46" s="58">
-        <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.46389486266915791</v>
-      </c>
-      <c r="F46" s="58">
-        <f>[1]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.31351652758245363</v>
-      </c>
-      <c r="G46" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F46)</f>
-        <v>0.48844580863545889</v>
-      </c>
-      <c r="H46" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G46,C46)</f>
-        <v>0.70451619800312282</v>
-      </c>
-      <c r="I46" s="58">
-        <f>[1]!MF_ksep_total_d(E46,H46)</f>
-        <v>0.84158961575142477</v>
+      <c r="E46" s="105">
+        <f>[2]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.45679447697820796</v>
+      </c>
+      <c r="F46" s="105">
+        <f>[2]!MF_ksep_natural_d(C46,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.30988458144804687</v>
+      </c>
+      <c r="G46" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F46)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G46,C46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="105">
+        <f>[2]!MF_ksep_total_d(E46,H46)</f>
+        <v>0.45679447697820796</v>
       </c>
     </row>
     <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <v>140</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="50">
         <v>80</v>
       </c>
-      <c r="E47" s="58">
-        <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.44565726212318157</v>
-      </c>
-      <c r="F47" s="58">
-        <f>[1]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.30447887487946179</v>
-      </c>
-      <c r="G47" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F47)</f>
-        <v>0.49487626728457007</v>
-      </c>
-      <c r="H47" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G47,C47)</f>
-        <v>0.67910482756419388</v>
-      </c>
-      <c r="I47" s="58">
-        <f>[1]!MF_ksep_total_d(E47,H47)</f>
-        <v>0.82211409154048143</v>
+      <c r="E47" s="105">
+        <f>[2]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.43870238061487443</v>
+      </c>
+      <c r="F47" s="105">
+        <f>[2]!MF_ksep_natural_d(C47,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.30127203730995422</v>
+      </c>
+      <c r="G47" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F47)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G47,C47)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="105">
+        <f>[2]!MF_ksep_total_d(E47,H47)</f>
+        <v>0.43870238061487443</v>
       </c>
     </row>
     <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="51">
+      <c r="C48" s="50">
         <v>150</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="50">
         <v>80</v>
       </c>
-      <c r="E48" s="58">
-        <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.42904809008159361</v>
-      </c>
-      <c r="F48" s="58">
-        <f>[1]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.29701409066566153</v>
-      </c>
-      <c r="G48" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F48)</f>
-        <v>0.50018760063504164</v>
-      </c>
-      <c r="H48" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G48,C48)</f>
-        <v>0.65328651622845979</v>
-      </c>
-      <c r="I48" s="58">
-        <f>[1]!MF_ksep_total_d(E48,H48)</f>
-        <v>0.80204327424617472</v>
+      <c r="E48" s="105">
+        <f>[2]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.42227238452458304</v>
+      </c>
+      <c r="F48" s="105">
+        <f>[2]!MF_ksep_natural_d(C48,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.29414329580923759</v>
+      </c>
+      <c r="G48" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F48)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G48,C48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="105">
+        <f>[2]!MF_ksep_total_d(E48,H48)</f>
+        <v>0.42227238452458304</v>
       </c>
     </row>
     <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <v>160</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="50">
         <v>80</v>
       </c>
-      <c r="E49" s="58">
-        <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.41392675058839767</v>
-      </c>
-      <c r="F49" s="58">
-        <f>[1]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.2907144169663276</v>
-      </c>
-      <c r="G49" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F49)</f>
-        <v>0.50466993609954225</v>
-      </c>
-      <c r="H49" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G49,C49)</f>
-        <v>0.62710858803170211</v>
-      </c>
-      <c r="I49" s="58">
-        <f>[1]!MF_ksep_total_d(E49,H49)</f>
-        <v>0.7814583185100592</v>
+      <c r="E49" s="105">
+        <f>[2]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.40735779831439678</v>
+      </c>
+      <c r="F49" s="105">
+        <f>[2]!MF_ksep_natural_d(C49,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.28807561708624796</v>
+      </c>
+      <c r="G49" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F49)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G49,C49)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="105">
+        <f>[2]!MF_ksep_total_d(E49,H49)</f>
+        <v>0.40735779831439678</v>
       </c>
     </row>
     <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="51">
+      <c r="C50" s="50">
         <v>170</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="50">
         <v>80</v>
       </c>
-      <c r="E50" s="58">
-        <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.40016624559041913</v>
-      </c>
-      <c r="F50" s="58">
-        <f>[1]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28521730441816473</v>
-      </c>
-      <c r="G50" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F50)</f>
-        <v>0.50858123431957336</v>
-      </c>
-      <c r="H50" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G50,C50)</f>
-        <v>0.60051986769680099</v>
-      </c>
-      <c r="I50" s="58">
-        <f>[1]!MF_ksep_total_d(E50,H50)</f>
-        <v>0.76037833242853603</v>
+      <c r="E50" s="105">
+        <f>[2]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.39382612421554519</v>
+      </c>
+      <c r="F50" s="105">
+        <f>[2]!MF_ksep_natural_d(C50,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.28269373902545247</v>
+      </c>
+      <c r="G50" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F50)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G50,C50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="105">
+        <f>[2]!MF_ksep_total_d(E50,H50)</f>
+        <v>0.39382612421554519</v>
       </c>
     </row>
     <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="51">
+      <c r="C51" s="50">
         <v>180</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="50">
         <v>80</v>
       </c>
-      <c r="E51" s="58">
-        <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.3876511372933189</v>
-      </c>
-      <c r="F51" s="58">
-        <f>[1]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.28019917323254528</v>
-      </c>
-      <c r="G51" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F51)</f>
-        <v>0.51215172835662115</v>
-      </c>
-      <c r="H51" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G51,C51)</f>
-        <v>0.57339274821545749</v>
-      </c>
-      <c r="I51" s="58">
-        <f>[1]!MF_ksep_total_d(E51,H51)</f>
-        <v>0.7387675345473127</v>
+      <c r="E51" s="105">
+        <f>[2]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.38155693652737277</v>
+      </c>
+      <c r="F51" s="105">
+        <f>[2]!MF_ksep_natural_d(C51,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.26996639947580725</v>
+      </c>
+      <c r="G51" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F51)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G51,C51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="105">
+        <f>[2]!MF_ksep_total_d(E51,H51)</f>
+        <v>0.38155693652737277</v>
       </c>
     </row>
     <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="51">
+      <c r="C52" s="50">
         <v>190</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="50">
         <v>80</v>
       </c>
-      <c r="E52" s="58">
-        <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.37627592469573212</v>
-      </c>
-      <c r="F52" s="58">
-        <f>[1]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27537035422306744</v>
-      </c>
-      <c r="G52" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F52)</f>
-        <v>0.51558752324550972</v>
-      </c>
-      <c r="H52" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G52,C52)</f>
-        <v>0.54553814207351448</v>
-      </c>
-      <c r="I52" s="58">
-        <f>[1]!MF_ksep_total_d(E52,H52)</f>
-        <v>0.71654119790374327</v>
+      <c r="E52" s="105">
+        <f>[2]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.3704401915749731</v>
+      </c>
+      <c r="F52" s="105">
+        <f>[2]!MF_ksep_natural_d(C52,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.2640770537344217</v>
+      </c>
+      <c r="G52" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F52)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G52,C52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="105">
+        <f>[2]!MF_ksep_total_d(E52,H52)</f>
+        <v>0.3704401915749731</v>
       </c>
     </row>
     <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="51">
+      <c r="C53" s="50">
         <v>200</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="50">
         <v>80</v>
       </c>
-      <c r="E53" s="58">
-        <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.36594373161527116</v>
-      </c>
-      <c r="F53" s="58">
-        <f>[1]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.27047092602630585</v>
-      </c>
-      <c r="G53" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F53)</f>
-        <v>0.51907355788956455</v>
-      </c>
-      <c r="H53" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G53,C53)</f>
-        <v>0.51671479415959842</v>
-      </c>
-      <c r="I53" s="58">
-        <f>[1]!MF_ksep_total_d(E53,H53)</f>
-        <v>0.69356998581928941</v>
+      <c r="E53" s="105">
+        <f>[2]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.36037486148306286</v>
+      </c>
+      <c r="F53" s="105">
+        <f>[2]!MF_ksep_natural_d(C53,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.25749324543840135</v>
+      </c>
+      <c r="G53" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F53)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G53,C53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="105">
+        <f>[2]!MF_ksep_total_d(E53,H53)</f>
+        <v>0.36037486148306286</v>
       </c>
     </row>
     <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="51">
+      <c r="C54" s="50">
         <v>210</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="50">
         <v>80</v>
       </c>
-      <c r="E54" s="58">
-        <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.35656523296052889</v>
-      </c>
-      <c r="F54" s="58">
-        <f>[1]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.2652672457145826</v>
-      </c>
-      <c r="G54" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F54)</f>
-        <v>0.52277607359440603</v>
-      </c>
-      <c r="H54" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G54,C54)</f>
-        <v>0.47665123870521087</v>
-      </c>
-      <c r="I54" s="58">
-        <f>[1]!MF_ksep_total_d(E54,H54)</f>
-        <v>0.66325921169589153</v>
+      <c r="E54" s="105">
+        <f>[2]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.35126781565414378</v>
+      </c>
+      <c r="F54" s="105">
+        <f>[2]!MF_ksep_natural_d(C54,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.24995859185444491</v>
+      </c>
+      <c r="G54" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F54)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G54,C54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="105">
+        <f>[2]!MF_ksep_total_d(E54,H54)</f>
+        <v>0.35126781565414378</v>
       </c>
     </row>
     <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="51">
+      <c r="C55" s="50">
         <v>220</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="50">
         <v>80</v>
       </c>
-      <c r="E55" s="58">
-        <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.3480577659801245</v>
-      </c>
-      <c r="F55" s="58">
-        <f>[1]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.25954902567525462</v>
-      </c>
-      <c r="G55" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F55)</f>
-        <v>0.52684469392291733</v>
-      </c>
-      <c r="H55" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G55,C55)</f>
-        <v>0.41591560145155826</v>
-      </c>
-      <c r="I55" s="58">
-        <f>[1]!MF_ksep_total_d(E55,H55)</f>
-        <v>0.61921071235417358</v>
+      <c r="E55" s="105">
+        <f>[2]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.34303289459394648</v>
+      </c>
+      <c r="F55" s="105">
+        <f>[2]!MF_ksep_natural_d(C55,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.24124489522217729</v>
+      </c>
+      <c r="G55" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F55)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G55,C55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="105">
+        <f>[2]!MF_ksep_total_d(E55,H55)</f>
+        <v>0.34303289459394648</v>
       </c>
     </row>
     <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="51">
+      <c r="C56" s="50">
         <v>230</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="50">
         <v>80</v>
       </c>
-      <c r="E56" s="58">
-        <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.34034458707322512</v>
-      </c>
-      <c r="F56" s="58">
-        <f>[1]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.23788200406584448</v>
-      </c>
-      <c r="G56" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F56)</f>
-        <v>0.54226118436435533</v>
-      </c>
-      <c r="H56" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G56,C56)</f>
-        <v>0.32099585015624771</v>
-      </c>
-      <c r="I56" s="58">
-        <f>[1]!MF_ksep_total_d(E56,H56)</f>
-        <v>0.55209123715582586</v>
+      <c r="E56" s="105">
+        <f>[2]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.33559013512076596</v>
+      </c>
+      <c r="F56" s="105">
+        <f>[2]!MF_ksep_natural_d(C56,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.23114920779053172</v>
+      </c>
+      <c r="G56" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F56)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G56,C56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="105">
+        <f>[2]!MF_ksep_total_d(E56,H56)</f>
+        <v>0.33559013512076596</v>
       </c>
     </row>
     <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="51">
+      <c r="C57" s="50">
         <v>240</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="50">
         <v>80</v>
       </c>
-      <c r="E57" s="58">
-        <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
-        <v>0.33335424454110862</v>
-      </c>
-      <c r="F57" s="58">
-        <f>[1]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
-        <v>0.22758141695104506</v>
-      </c>
-      <c r="G57" s="64">
-        <f>[1]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F57)</f>
-        <v>0.54959024442896232</v>
-      </c>
-      <c r="H57" s="60">
-        <f>[1]!MF_ksep_gasseparator_d(gassep_type,G57,C57)</f>
-        <v>0.2241402443360721</v>
-      </c>
-      <c r="I57" s="58">
-        <f>[1]!MF_ksep_total_d(E57,H57)</f>
-        <v>0.48277638705526993</v>
+      <c r="E57" s="105">
+        <f>[2]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
+        <v>0.32886511617295611</v>
+      </c>
+      <c r="F57" s="105">
+        <f>[2]!MF_ksep_natural_d(C57,wc_,Pintake_,Tintake_,Dintake_,Dcas_*cf_dcas_,PVT_str_)</f>
+        <v>0.21949150310118704</v>
+      </c>
+      <c r="G57" s="105">
+        <f>[2]!MF_gas_fraction_d(Pintake_,Tintake_,0,PVT_str_)*(1-F57)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="105">
+        <f>[2]!MF_ksep_gasseparator_d(gassep_type,G57,C57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="105">
+        <f>[2]!MF_ksep_total_d(E57,H57)</f>
+        <v>0.32886511617295611</v>
       </c>
     </row>
     <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -9308,199 +9457,198 @@
     <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="56"/>
+      <c r="E67" s="52"/>
     </row>
     <row r="68" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="55"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
     </row>
     <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
     </row>
     <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
     </row>
     <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
     </row>
     <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
     </row>
     <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
     </row>
     <row r="77" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
     </row>
     <row r="78" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
     </row>
     <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
     </row>
     <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="63"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
     </row>
     <row r="81" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
     </row>
     <row r="82" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
     </row>
     <row r="83" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
     </row>
     <row r="84" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
     </row>
     <row r="85" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
     </row>
     <row r="86" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
     </row>
     <row r="87" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
     </row>
     <row r="88" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
     </row>
     <row r="89" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
     </row>
     <row r="90" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
     </row>
     <row r="91" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
     </row>
     <row r="92" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="149" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K160" s="61"/>
+      <c r="K160" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9540,29 +9688,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="V2" s="72" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="V2" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="3" spans="2:25" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
@@ -65299,15 +65447,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="80">
+      <c r="K1" s="92"/>
+      <c r="L1" s="96">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="81"/>
+      <c r="M1" s="97"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -65319,15 +65467,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78">
+      <c r="K2" s="94"/>
+      <c r="L2" s="69">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="79"/>
+      <c r="M2" s="95"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -65341,31 +65489,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="97"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="71">
         <v>1</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -65374,14 +65522,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="78"/>
+      <c r="D8" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="78"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -65492,10 +65640,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="80"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -65523,10 +65671,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="80"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -65648,99 +65796,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="84" t="s">
+      <c r="B42" s="65"/>
+      <c r="C42" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="87" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="88"/>
-      <c r="L42" s="73" t="s">
+      <c r="J42" s="87"/>
+      <c r="L42" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73" t="s">
+      <c r="M42" s="98"/>
+      <c r="N42" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73" t="s">
+      <c r="O42" s="98"/>
+      <c r="P42" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73" t="s">
+      <c r="Q42" s="98"/>
+      <c r="R42" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73" t="s">
+      <c r="S42" s="98"/>
+      <c r="T42" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73" t="s">
+      <c r="U42" s="98"/>
+      <c r="V42" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73" t="s">
+      <c r="W42" s="98"/>
+      <c r="X42" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73" t="s">
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73" t="s">
+      <c r="AA42" s="98"/>
+      <c r="AB42" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73" t="s">
+      <c r="AC42" s="98"/>
+      <c r="AD42" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="73"/>
-      <c r="AF42" s="73" t="s">
+      <c r="AE42" s="98"/>
+      <c r="AF42" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73" t="s">
+      <c r="AG42" s="98"/>
+      <c r="AH42" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73" t="s">
+      <c r="AI42" s="98"/>
+      <c r="AJ42" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="73"/>
-      <c r="AM42" s="73"/>
-      <c r="AN42" s="73"/>
-      <c r="AO42" s="73"/>
-      <c r="AP42" s="73"/>
-      <c r="AQ42" s="73"/>
-      <c r="AR42" s="73"/>
-      <c r="AS42" s="73"/>
+      <c r="AK42" s="98"/>
+      <c r="AL42" s="98"/>
+      <c r="AM42" s="98"/>
+      <c r="AN42" s="98"/>
+      <c r="AO42" s="98"/>
+      <c r="AP42" s="98"/>
+      <c r="AQ42" s="98"/>
+      <c r="AR42" s="98"/>
+      <c r="AS42" s="98"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="91" t="s">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="91" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="92"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="90"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="89"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -65836,17 +65984,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="83"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="83"/>
+      <c r="G44" s="82"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -68319,20 +68467,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -68347,13 +68488,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
